--- a/Statistika.xlsx
+++ b/Statistika.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\metonum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30620BC1-1564-4597-8D82-05B83383EB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F970D1-61E0-4D29-9BEC-34B4BD8C2630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
   <si>
     <t>Berapakah Indeks Per Semester (IPS) anda pada semester lalu?</t>
   </si>
@@ -148,14 +148,17 @@
     <t>(Xi - X̅)²</t>
   </si>
   <si>
-    <t>No</t>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>ϵ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -170,6 +173,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -220,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -241,12 +251,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -786,7 +803,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72670512-B6E8-4D67-B864-7701953FC142}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -843,7 +862,9 @@
       <c r="M1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="2"/>
+      <c r="N1" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
@@ -885,9 +906,11 @@
         <v>0.14199999999999999</v>
       </c>
       <c r="M2" s="3">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>0.2319</v>
+      </c>
+      <c r="N2" s="3">
+        <v>-0.48199999999999998</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
@@ -929,9 +952,11 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="N3" s="4">
+        <v>1.7999999999999999E-2</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
@@ -973,9 +998,11 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="M4" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="N4" s="3">
+        <v>-5.6000000000000001E-2</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
@@ -1017,9 +1044,11 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="M5" s="4">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="N5" s="2"/>
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.14399999999999999</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
@@ -1061,9 +1090,11 @@
         <v>0.45900000000000002</v>
       </c>
       <c r="M6" s="3">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="N6" s="2"/>
+        <v>0.16289999999999999</v>
+      </c>
+      <c r="N6" s="3">
+        <v>-0.40400000000000003</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
@@ -1105,9 +1136,11 @@
         <v>0.27300000000000002</v>
       </c>
       <c r="M7" s="4">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="N7" s="2"/>
+        <v>8.5500000000000007E-2</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.29199999999999998</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
@@ -1151,7 +1184,9 @@
       <c r="M8" s="3">
         <v>2E-3</v>
       </c>
-      <c r="N8" s="2"/>
+      <c r="N8" s="3">
+        <v>4.3999999999999997E-2</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
@@ -1195,7 +1230,9 @@
       <c r="M9" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N9" s="2"/>
+      <c r="N9" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
@@ -1237,9 +1274,11 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="M10" s="3">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.14399999999999999</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
@@ -1283,7 +1322,9 @@
       <c r="M11" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N11" s="2"/>
+      <c r="N11" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
@@ -1325,9 +1366,11 @@
         <v>3.1E-2</v>
       </c>
       <c r="M12" s="3">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>7.9299999999999995E-2</v>
+      </c>
+      <c r="N12" s="3">
+        <v>-0.28199999999999997</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
@@ -1369,9 +1412,11 @@
         <v>0.104</v>
       </c>
       <c r="M13" s="4">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0.218</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
@@ -1413,9 +1458,11 @@
         <v>0.104</v>
       </c>
       <c r="M14" s="3">
-        <v>0.221</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>0.2213</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.47</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
@@ -1457,9 +1504,11 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="M15" s="4">
-        <v>3.9E-2</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>3.8600000000000002E-2</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0.19600000000000001</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
@@ -1501,9 +1550,11 @@
         <v>0.22800000000000001</v>
       </c>
       <c r="M16" s="3">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>0.33829999999999999</v>
+      </c>
+      <c r="N16" s="3">
+        <v>-0.58199999999999996</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
@@ -1545,9 +1596,11 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="M17" s="4">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>7.3099999999999998E-2</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0.27</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
@@ -1589,9 +1642,11 @@
         <v>1E-3</v>
       </c>
       <c r="M18" s="3">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>4.3099999999999999E-2</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-0.20799999999999999</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
@@ -1633,9 +1688,11 @@
         <v>3.1E-2</v>
       </c>
       <c r="M19" s="4">
-        <v>2.4E-2</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="N19" s="4">
+        <v>-0.156</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
@@ -1677,9 +1734,11 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="M20" s="3">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.14399999999999999</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
@@ -1721,9 +1780,11 @@
         <v>3.1E-2</v>
       </c>
       <c r="M21" s="4">
-        <v>2.4E-2</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="N21" s="4">
+        <v>-0.156</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
@@ -1765,9 +1826,11 @@
         <v>0.27300000000000002</v>
       </c>
       <c r="M22" s="3">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>0.17510000000000001</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.41799999999999998</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
@@ -1809,9 +1872,11 @@
         <v>0.05</v>
       </c>
       <c r="M23" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>5.9700000000000003E-2</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0.24399999999999999</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
@@ -1853,9 +1918,11 @@
         <v>0.17899999999999999</v>
       </c>
       <c r="M24" s="3">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>0.19750000000000001</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0.44400000000000001</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
@@ -1897,9 +1964,11 @@
         <v>0.45900000000000002</v>
       </c>
       <c r="M25" s="4">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>0.28050000000000003</v>
+      </c>
+      <c r="N25" s="4">
+        <v>-0.53</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
@@ -1941,9 +2010,11 @@
         <v>0.22800000000000001</v>
       </c>
       <c r="M26" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-0.20399999999999999</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
@@ -1985,9 +2056,11 @@
         <v>3.1E-2</v>
       </c>
       <c r="M27" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="N27" s="4">
+        <v>-0.03</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
@@ -2029,9 +2102,11 @@
         <v>1E-3</v>
       </c>
       <c r="M28" s="3">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>4.3099999999999999E-2</v>
+      </c>
+      <c r="N28" s="3">
+        <v>-0.20799999999999999</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
@@ -2073,9 +2148,11 @@
         <v>0.27300000000000002</v>
       </c>
       <c r="M29" s="4">
-        <v>2E-3</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0.04</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
@@ -2119,7 +2196,9 @@
       <c r="M30" s="3">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="N30" s="2"/>
+      <c r="N30" s="3">
+        <v>-0.182</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
@@ -2161,9 +2240,11 @@
         <v>0.27300000000000002</v>
       </c>
       <c r="M31" s="4">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>0.17510000000000001</v>
+      </c>
+      <c r="N31" s="4">
+        <v>0.41799999999999998</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
@@ -2205,77 +2286,83 @@
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="M32" s="3">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>6.5299999999999997E-2</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-0.25600000000000001</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="8">
         <v>192</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="8">
         <v>107.8</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8">
         <v>6.6349999999999998</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="8">
         <v>52.838999999999999</v>
       </c>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5">
+      <c r="J33" s="8"/>
+      <c r="K33" s="8">
         <v>2.5211000000000001</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="8">
         <v>3.3540000000000001</v>
       </c>
-      <c r="M33" s="5">
-        <v>2.5209999999999999</v>
-      </c>
-      <c r="N33" s="2"/>
+      <c r="M33" s="8">
+        <v>2.5211000000000001</v>
+      </c>
+      <c r="N33" s="5">
+        <v>-0.08</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
     <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="6">
-        <v>6.194</v>
-      </c>
-      <c r="C34" s="6">
-        <v>3.4769999999999999</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6">
+      <c r="B34" s="10">
+        <v>6.194</v>
+      </c>
+      <c r="C34" s="10">
+        <v>3.4769999999999999</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10">
         <v>0.214</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="10">
         <v>1.704</v>
       </c>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6">
+      <c r="J34" s="10"/>
+      <c r="K34" s="10">
         <v>8.1299999999999997E-2</v>
       </c>
-      <c r="L34" s="6">
+      <c r="L34" s="10">
         <v>0.108</v>
       </c>
-      <c r="M34" s="6">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="N34" s="2"/>
+      <c r="M34" s="10">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="N34" s="6">
+        <v>-3.0000000000000001E-3</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
@@ -2298,17 +2385,17 @@
       <c r="P35" s="2"/>
     </row>
     <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="12">
         <v>0.126</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="10" t="s">
+      <c r="C36" s="9"/>
+      <c r="D36" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="13">
         <v>0.24836676099999999</v>
       </c>
       <c r="F36" s="2"/>
@@ -2324,17 +2411,17 @@
       <c r="P36" s="2"/>
     </row>
     <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="13">
         <v>2.6996000000000002</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="9" t="s">
+      <c r="C37" s="9"/>
+      <c r="D37" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="12">
         <v>8.1299999999999997E-2</v>
       </c>
       <c r="F37" s="2"/>
@@ -2387,9 +2474,7 @@
     </row>
     <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
-      <c r="B40" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
